--- a/similarities/split_global/harmonic_similarity_timestamps_374.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_374.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,203 +484,209 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>schubert-winterreise_192</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:20.340000', '0:00:28.440000')]</t>
+          <t>('0:00:49.140000', '0:01:02.460000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:12.430000', '0:00:17.230000')]</t>
+          <t>('0:00:02.020000', '0:00:10.620000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=20.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=49.14</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.02</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['Ab/b5', 'Ab:7', 'Db/3']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:13.480000', '0:00:20.960000')]</t>
+          <t>('0:01:00.800000', '0:01:09.040000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:10.560000', '0:00:17.340000')]</t>
+          <t>('0:00:05.320000', '0:00:06.840000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=13.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=60.8</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=5.32</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
+          <t>['G', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:18.660000', '0:00:21.840000')]</t>
+          <t>('0:01:02.530000', '0:01:09.910000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:04:01.220000', '0:04:15.460000')]</t>
+          <t>('0:00:14.628775', '0:00:26.430680')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=18.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=241.22']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>jaah_60</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D/5', 'A:7', 'D']]</t>
+          <t>['Bb:7', 'F:min7', 'Bb:7']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:7', 'D:min7', 'G:7']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:22.297891', '0:01:32.619160')]</t>
+          <t>('0:00:25.840000', '0:00:28.830000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:58.350000', '0:01:04.070000')]</t>
+          <t>('0:00:25.910000', '0:00:28.980000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=82.297891']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=25.84</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=58.35']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-60#t=25.91</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>isophonics_8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -690,496 +696,518 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/A#', 'F:maj/A'], ['G:min7/A#', 'C:7', 'F:maj']]</t>
+          <t>['F#:min7', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb'], ['C:min7', 'F:7', 'Bb']]</t>
+          <t>['C:min7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:14.900000', '0:01:26.120000'), ('0:01:11.100000', '0:01:18.700000')]</t>
+          <t>('0:00:05.708194', '0:00:10.061936')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:19.130000', '0:00:20.830000'), ('0:00:09.660000', '0:00:10.950000')]</t>
+          <t>('0:00:09.660000', '0:00:10.950000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=74.9', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=71.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=5.708194</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13', 'https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=9.66']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=9.66</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>schubert-winterreise_25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:24.860000', '0:00:45.460000')]</t>
+          <t>('0:00:07.400000', '0:00:18.960000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:01.683832', '0:01:11.056785')]</t>
+          <t>('0:00:42.520000', '0:00:50.160000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=24.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>jaah_70</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['A#:7', 'D#:maj', 'D#:7']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'D/5']]</t>
+          <t>['Ab:7', 'Db', 'Db:7']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+          <t>('0:01:04.580000', '0:01:17.220000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:06.206099')]</t>
+          <t>('0:00:56.020000', '0:00:59.320000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.58</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=56.02</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_13</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_50</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C']]</t>
+          <t>['C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:23.629455', '0:00:29.120975')]</t>
+          <t>('0:00:40.080000', '0:00:45.580000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:54.580000', '0:01:00.600000')]</t>
+          <t>('0:01:32.040000', '0:01:44.400000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-13#t=23.629455']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=40.08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=54.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=92.04</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>isophonics_290</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:maj/G', 'G:7', 'C:maj'], ['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G', 'A:7', 'D'], ['D', 'A', 'D']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:27.660000', '0:00:34.240000'), ('0:00:09.540000', '0:00:11.420000')]</t>
+          <t>('0:00:08.482392', '0:00:11.666439')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:27.609000', '0:00:32.201000'), ('0:00:06.536000', '0:00:11.853000')]</t>
+          <t>('0:00:45.480000', '0:00:48')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=27.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=9.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=8.482392</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=27.609', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=6.536']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=45.48</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>jaah_64</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['D:7', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['F#:7/A#', 'B:7/A', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:18.640000', '0:00:28.900000')]</t>
+          <t>('0:00:25.110000', '0:00:28.410000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:07.800000', '0:00:13.900000')]</t>
+          <t>('0:00:55.620000', '0:01:03.080000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=18.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=25.11</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=7.8']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=55.62</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D', 'B', 'E'], ['B', 'E', 'D'], ['E', 'A', 'E']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'A:maj', 'D:maj'], ['A:maj', 'D:maj', 'C:maj'], ['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:24.425238', '0:00:33.479637'), ('0:00:28.575754', '0:00:34.292335'), ('0:00:08.413696', '0:00:11.072593')]</t>
+          <t>('0:00:11.240000', '0:00:17.760000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:24.701000', '0:01:30.135000'), ('0:01:12.543000', '0:01:20.563000'), ('0:00:11.384000', '0:00:18.318000')]</t>
+          <t>('0:00:13.740000', '0:00:22.560000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=24.425238', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=28.575754', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=84.701', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=72.543', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>schubert-winterreise_46</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'F', 'C']]</t>
+          <t>['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:00.276984', '0:01:27.246961')]</t>
+          <t>('0:00:43.060000', '0:01:03.280000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:02:01.080000', '0:02:02.360000')]</t>
+          <t>('0:00:00.780000', '0:00:09.740000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=60.276984']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=43.06</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=121.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=0.78</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
+          <t>['G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:38.041000', '0:00:42.375000')]</t>
+          <t>('0:01:28.480000', '0:01:40.380000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:00:25.480000', '0:00:32.580000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=38.041']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=88.48</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=25.48</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
+          <t>['G/5', 'G:min/5', 'D']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['Db', 'Db:min', 'Ab']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:38.841000', '0:00:47.891000')]</t>
+          <t>('0:01:26.291723', '0:01:33.397029')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:45.580000', '0:00:59.100000')]</t>
+          <t>('0:02:09.120000', '0:02:11.120000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=38.841']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=86.291723</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=129.12</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['B:min/5', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:23.632675', '0:00:27.452358')]</t>
+          <t>('0:04:04.360000', '0:04:15.460000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:02.680000', '0:00:08.620000')]</t>
+          <t>('0:03:55.320000', '0:04:02.100000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=23.632675']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=244.36</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=2.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=235.32</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
